--- a/apidata/momentum/03-08-2023/report_03-08-2023.xlsx
+++ b/apidata/momentum/03-08-2023/report_03-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M149"/>
+  <dimension ref="B1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-31807.14999999998</v>
+        <v>-145350</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-754.6499999999796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-31052.5</v>
+        <v>-145350</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AUROPHARMA-EQ</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>275</v>
+        <v>40651</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="H10" t="n">
-        <v>58</v>
+        <v>2200</v>
       </c>
       <c r="I10" t="n">
-        <v>850.3</v>
+        <v>39.8</v>
       </c>
       <c r="J10" t="n">
-        <v>49317.4</v>
+        <v>87560</v>
       </c>
       <c r="K10" t="n">
-        <v>-49317.4</v>
+        <v>-87560</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9581</v>
+        <v>135365</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>1600</v>
       </c>
       <c r="I11" t="n">
-        <v>1398.2</v>
+        <v>61</v>
       </c>
       <c r="J11" t="n">
-        <v>48937</v>
+        <v>97600</v>
       </c>
       <c r="K11" t="n">
-        <v>-48937</v>
+        <v>-97600</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>IBULHSGFIN31AUG23C152.5</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30125</v>
+        <v>128848</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H12" t="n">
-        <v>323</v>
+        <v>10200</v>
       </c>
       <c r="I12" t="n">
-        <v>154.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>49903.5</v>
+        <v>81600</v>
       </c>
       <c r="K12" t="n">
-        <v>-49903.5</v>
+        <v>-81600</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,31 +737,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>PEL31AUG23C970</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2412</v>
+        <v>73884</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="I13" t="n">
-        <v>985.9</v>
+        <v>55.05</v>
       </c>
       <c r="J13" t="n">
-        <v>49295</v>
+        <v>82575</v>
       </c>
       <c r="K13" t="n">
-        <v>-49295</v>
+        <v>-82575</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,31 +782,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>ABCAPITAL31AUG23C190</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21614</v>
+        <v>65757</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H14" t="n">
-        <v>257</v>
+        <v>10800</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2</v>
+        <v>7.75</v>
       </c>
       <c r="J14" t="n">
-        <v>49909.4</v>
+        <v>83700</v>
       </c>
       <c r="K14" t="n">
-        <v>-49909.4</v>
+        <v>-83700</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,42 +827,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>HINDPETRO31AUG23P272.5</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1406</v>
+        <v>128470</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H15" t="n">
-        <v>183</v>
+        <v>10800</v>
       </c>
       <c r="I15" t="n">
-        <v>272.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>49821.75</v>
+        <v>88560</v>
       </c>
       <c r="K15" t="n">
-        <v>49821.75</v>
+        <v>-88560</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -872,42 +872,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20242</v>
+        <v>137803</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H16" t="n">
-        <v>45</v>
+        <v>2800</v>
       </c>
       <c r="I16" t="n">
-        <v>1098.6</v>
+        <v>33.9</v>
       </c>
       <c r="J16" t="n">
-        <v>49437</v>
+        <v>94920</v>
       </c>
       <c r="K16" t="n">
-        <v>49437</v>
+        <v>-94920</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -917,121 +917,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>UPL31AUG23P600</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11287</v>
+        <v>149204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="H17" t="n">
-        <v>83</v>
+        <v>5200</v>
       </c>
       <c r="I17" t="n">
-        <v>602.4</v>
+        <v>16.15</v>
       </c>
       <c r="J17" t="n">
-        <v>49999.2</v>
+        <v>83980</v>
       </c>
       <c r="K17" t="n">
-        <v>49999.2</v>
+        <v>-83980</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>CHOLAFIN31AUG23P1080</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>772</v>
+        <v>105645</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="H18" t="n">
-        <v>90</v>
+        <v>2500</v>
       </c>
       <c r="I18" t="n">
-        <v>550.8</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>49572</v>
+        <v>85000</v>
       </c>
       <c r="K18" t="n">
-        <v>49572</v>
+        <v>-85000</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 10:25:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CHOLAFIN-EQ</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>685</v>
+        <v>135365</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H19" t="n">
-        <v>45</v>
+        <v>1600</v>
       </c>
       <c r="I19" t="n">
-        <v>1089.25</v>
+        <v>54.85</v>
       </c>
       <c r="J19" t="n">
-        <v>49016.25</v>
+        <v>87760</v>
       </c>
       <c r="K19" t="n">
-        <v>49016.25</v>
+        <v>87760</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1042,41 +1042,41 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 10:31:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AUROPHARMA-EQ</t>
+          <t>ABCAPITAL31AUG23C190</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>275</v>
+        <v>65757</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H20" t="n">
-        <v>58</v>
+        <v>10800</v>
       </c>
       <c r="I20" t="n">
-        <v>850.1</v>
+        <v>7.1</v>
       </c>
       <c r="J20" t="n">
-        <v>49305.8</v>
+        <v>76680</v>
       </c>
       <c r="K20" t="n">
-        <v>49305.8</v>
+        <v>76680</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,41 +1087,41 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 11:03:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9581</v>
+        <v>40651</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>2200</v>
       </c>
       <c r="I21" t="n">
-        <v>1382.3</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>48380.5</v>
+        <v>82060</v>
       </c>
       <c r="K21" t="n">
-        <v>48380.5</v>
+        <v>82060</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,176 +1132,176 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30125</v>
+        <v>40651</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="H22" t="n">
-        <v>323</v>
+        <v>2200</v>
       </c>
       <c r="I22" t="n">
-        <v>153.2</v>
+        <v>37.15</v>
       </c>
       <c r="J22" t="n">
-        <v>49483.6</v>
+        <v>81730</v>
       </c>
       <c r="K22" t="n">
-        <v>49483.6</v>
+        <v>-81730</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2412</v>
+        <v>135365</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>1600</v>
       </c>
       <c r="I23" t="n">
-        <v>979.55</v>
+        <v>60.8</v>
       </c>
       <c r="J23" t="n">
-        <v>48977.5</v>
+        <v>97280</v>
       </c>
       <c r="K23" t="n">
-        <v>48977.5</v>
+        <v>-97280</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-03 09:45:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>IBULHSGFIN31AUG23C152.5</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21614</v>
+        <v>128848</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H24" t="n">
-        <v>257</v>
+        <v>10200</v>
       </c>
       <c r="I24" t="n">
-        <v>193</v>
+        <v>8.1</v>
       </c>
       <c r="J24" t="n">
-        <v>49601</v>
+        <v>82620</v>
       </c>
       <c r="K24" t="n">
-        <v>49601</v>
+        <v>-82620</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>PEL31AUG23C990</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1406</v>
+        <v>73896</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H25" t="n">
-        <v>183</v>
+        <v>2250</v>
       </c>
       <c r="I25" t="n">
-        <v>270.5</v>
+        <v>35.1</v>
       </c>
       <c r="J25" t="n">
-        <v>49501.5</v>
+        <v>78975</v>
       </c>
       <c r="K25" t="n">
-        <v>-49501.5</v>
+        <v>-78975</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20242</v>
+        <v>65769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H26" t="n">
-        <v>45</v>
+        <v>10800</v>
       </c>
       <c r="I26" t="n">
-        <v>1100</v>
+        <v>7.55</v>
       </c>
       <c r="J26" t="n">
-        <v>49500</v>
+        <v>81540</v>
       </c>
       <c r="K26" t="n">
-        <v>-49500</v>
+        <v>-81540</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,131 +1357,131 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 11:58:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>11287</v>
+        <v>135365</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H27" t="n">
-        <v>83</v>
+        <v>1600</v>
       </c>
       <c r="I27" t="n">
-        <v>600.65</v>
+        <v>57</v>
       </c>
       <c r="J27" t="n">
-        <v>49853.95</v>
+        <v>91200</v>
       </c>
       <c r="K27" t="n">
-        <v>-49853.95</v>
+        <v>91200</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 12:05:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>772</v>
+        <v>40651</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="H28" t="n">
-        <v>90</v>
+        <v>2200</v>
       </c>
       <c r="I28" t="n">
-        <v>556</v>
+        <v>33.5</v>
       </c>
       <c r="J28" t="n">
-        <v>50040</v>
+        <v>73700</v>
       </c>
       <c r="K28" t="n">
-        <v>-50040</v>
+        <v>73700</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 12:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CHOLAFIN-EQ</t>
+          <t>AUROPHARMA31AUG23C840</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>685</v>
+        <v>42917</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="H29" t="n">
-        <v>45</v>
+        <v>2200</v>
       </c>
       <c r="I29" t="n">
-        <v>1068.7</v>
+        <v>39.1</v>
       </c>
       <c r="J29" t="n">
-        <v>48091.5</v>
+        <v>86020</v>
       </c>
       <c r="K29" t="n">
-        <v>-48091.5</v>
+        <v>-86020</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1497,16 +1497,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AUROPHARMA31AUG23C840</t>
+          <t>METROPOLIS31AUG23C1380</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42917</v>
+        <v>135363</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="H30" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I30" t="n">
-        <v>39.1</v>
+        <v>63</v>
       </c>
       <c r="J30" t="n">
-        <v>43010</v>
+        <v>75600</v>
       </c>
       <c r="K30" t="n">
-        <v>-43010</v>
+        <v>-75600</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23C1380</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>135363</v>
+        <v>65769</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>400</v>
+        <v>5400</v>
       </c>
       <c r="H31" t="n">
-        <v>400</v>
+        <v>10800</v>
       </c>
       <c r="I31" t="n">
-        <v>63</v>
+        <v>6.95</v>
       </c>
       <c r="J31" t="n">
-        <v>25200</v>
+        <v>75060</v>
       </c>
       <c r="K31" t="n">
-        <v>-25200</v>
+        <v>-75060</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1582,21 +1582,21 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:32:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C152.5</t>
+          <t>AUROPHARMA31AUG23C840</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>128848</v>
+        <v>42917</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,44 +1604,44 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="H32" t="n">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="I32" t="n">
-        <v>8.1</v>
+        <v>38.1</v>
       </c>
       <c r="J32" t="n">
-        <v>41310</v>
+        <v>83820</v>
       </c>
       <c r="K32" t="n">
-        <v>-41310</v>
+        <v>83820</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:55:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PEL31AUG23C980</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>73886</v>
+        <v>65769</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,44 +1649,44 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>750</v>
+        <v>5400</v>
       </c>
       <c r="H33" t="n">
-        <v>750</v>
+        <v>21600</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>6.25</v>
       </c>
       <c r="J33" t="n">
-        <v>30000</v>
+        <v>135000</v>
       </c>
       <c r="K33" t="n">
-        <v>-30000</v>
+        <v>135000</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:59:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>IBULHSGFIN31AUG23C152.5</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>65769</v>
+        <v>128848</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,44 +1694,44 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H34" t="n">
-        <v>5400</v>
+        <v>20400</v>
       </c>
       <c r="I34" t="n">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="J34" t="n">
-        <v>37530</v>
+        <v>146880</v>
       </c>
       <c r="K34" t="n">
-        <v>-37530</v>
+        <v>146880</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P272.5</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>128470</v>
+        <v>65769</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="H35" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I35" t="n">
-        <v>8.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="J35" t="n">
-        <v>44280</v>
+        <v>72900</v>
       </c>
       <c r="K35" t="n">
-        <v>-44280</v>
+        <v>-72900</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1762,21 +1762,21 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>137807</v>
+        <v>128468</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="H36" t="n">
-        <v>700</v>
+        <v>10800</v>
       </c>
       <c r="I36" t="n">
-        <v>36.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>25550</v>
+        <v>86940</v>
       </c>
       <c r="K36" t="n">
-        <v>-25550</v>
+        <v>-86940</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1807,21 +1807,21 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UPL31AUG23P605</t>
+          <t>CHOLAFIN31AUG23P1060</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>178514</v>
+        <v>105641</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="H37" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
+        <v>31.55</v>
       </c>
       <c r="J37" t="n">
-        <v>39000</v>
+        <v>78875</v>
       </c>
       <c r="K37" t="n">
-        <v>-39000</v>
+        <v>-78875</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 13:44:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1070</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>105643</v>
+        <v>65769</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,44 +1874,44 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1250</v>
+        <v>5400</v>
       </c>
       <c r="H38" t="n">
-        <v>1250</v>
+        <v>10800</v>
       </c>
       <c r="I38" t="n">
-        <v>32</v>
+        <v>6.3</v>
       </c>
       <c r="J38" t="n">
-        <v>40000</v>
+        <v>68040</v>
       </c>
       <c r="K38" t="n">
-        <v>-40000</v>
+        <v>68040</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AUROPHARMA31AUG23C840</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42917</v>
+        <v>128468</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,44 +1919,44 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="H39" t="n">
-        <v>1100</v>
+        <v>10800</v>
       </c>
       <c r="I39" t="n">
-        <v>39.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>43010</v>
+        <v>89640</v>
       </c>
       <c r="K39" t="n">
-        <v>43010</v>
+        <v>-89640</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23C1380</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>135363</v>
+        <v>137803</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,44 +1964,44 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H40" t="n">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="I40" t="n">
-        <v>64</v>
+        <v>33.9</v>
       </c>
       <c r="J40" t="n">
-        <v>25600</v>
+        <v>94920</v>
       </c>
       <c r="K40" t="n">
-        <v>25600</v>
+        <v>-94920</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C152.5</t>
+          <t>METROPOLIS31AUG23C1380</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>128848</v>
+        <v>135363</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="H41" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="I41" t="n">
-        <v>8.15</v>
+        <v>79</v>
       </c>
       <c r="J41" t="n">
-        <v>41565</v>
+        <v>94800</v>
       </c>
       <c r="K41" t="n">
-        <v>41565</v>
+        <v>94800</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PEL31AUG23C980</t>
+          <t>PEL31AUG23C970</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73886</v>
+        <v>73884</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2057,16 +2057,16 @@
         <v>750</v>
       </c>
       <c r="H42" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>55.05</v>
       </c>
       <c r="J42" t="n">
-        <v>30000</v>
+        <v>82575</v>
       </c>
       <c r="K42" t="n">
-        <v>30000</v>
+        <v>82575</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2077,21 +2077,21 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>PEL31AUG23C990</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>65769</v>
+        <v>73896</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5400</v>
+        <v>750</v>
       </c>
       <c r="H43" t="n">
-        <v>5400</v>
+        <v>2250</v>
       </c>
       <c r="I43" t="n">
-        <v>6.95</v>
+        <v>35.1</v>
       </c>
       <c r="J43" t="n">
-        <v>37530</v>
+        <v>78975</v>
       </c>
       <c r="K43" t="n">
-        <v>37530</v>
+        <v>78975</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2122,21 +2122,21 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>HINDPETRO31AUG23P272.5</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>65769</v>
+        <v>128470</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,30 +2144,30 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H44" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I44" t="n">
-        <v>6.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>36450</v>
+        <v>95040</v>
       </c>
       <c r="K44" t="n">
-        <v>-36450</v>
+        <v>95040</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2192,41 +2192,41 @@
         <v>2700</v>
       </c>
       <c r="H45" t="n">
-        <v>5400</v>
+        <v>21600</v>
       </c>
       <c r="I45" t="n">
-        <v>8.050000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="J45" t="n">
-        <v>43470</v>
+        <v>159840</v>
       </c>
       <c r="K45" t="n">
-        <v>-43470</v>
+        <v>159840</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1060</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>105641</v>
+        <v>137803</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2234,44 +2234,44 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="H46" t="n">
-        <v>1250</v>
+        <v>5600</v>
       </c>
       <c r="I46" t="n">
-        <v>31.55</v>
+        <v>25.15</v>
       </c>
       <c r="J46" t="n">
-        <v>39437.5</v>
+        <v>140840</v>
       </c>
       <c r="K46" t="n">
-        <v>-39437.5</v>
+        <v>140840</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>UPL31AUG23P600</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>65769</v>
+        <v>149204</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2279,19 +2279,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5400</v>
+        <v>1300</v>
       </c>
       <c r="H47" t="n">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I47" t="n">
-        <v>6.75</v>
+        <v>13.3</v>
       </c>
       <c r="J47" t="n">
-        <v>36450</v>
+        <v>69160</v>
       </c>
       <c r="K47" t="n">
-        <v>36450</v>
+        <v>69160</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2302,21 +2302,21 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>CHOLAFIN31AUG23P1080</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>128468</v>
+        <v>105645</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2324,44 +2324,44 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2700</v>
+        <v>1250</v>
       </c>
       <c r="H48" t="n">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="I48" t="n">
-        <v>8.300000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="J48" t="n">
-        <v>44820</v>
+        <v>89750</v>
       </c>
       <c r="K48" t="n">
-        <v>-44820</v>
+        <v>89750</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
+          <t>CHOLAFIN31AUG23P1060</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>137803</v>
+        <v>105641</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2369,89 +2369,45 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="H49" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="I49" t="n">
-        <v>33.9</v>
+        <v>26.45</v>
       </c>
       <c r="J49" t="n">
-        <v>47460</v>
+        <v>66125</v>
       </c>
       <c r="K49" t="n">
-        <v>-47460</v>
+        <v>66125</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-08-03 14:15:00</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I50" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="J50" t="n">
-        <v>39937.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-39937.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P272.5</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>128470</v>
+        <v>40651</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2459,44 +2415,44 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="H51" t="n">
-        <v>5400</v>
+        <v>2200</v>
       </c>
       <c r="I51" t="n">
-        <v>8.800000000000001</v>
+        <v>39.8</v>
       </c>
       <c r="J51" t="n">
-        <v>47520</v>
+        <v>87560</v>
       </c>
       <c r="K51" t="n">
-        <v>47520</v>
+        <v>-87560</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 11:03:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>128468</v>
+        <v>40651</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2504,19 +2460,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="H52" t="n">
-        <v>10800</v>
+        <v>2200</v>
       </c>
       <c r="I52" t="n">
-        <v>7.4</v>
+        <v>37.3</v>
       </c>
       <c r="J52" t="n">
-        <v>79920</v>
+        <v>82060</v>
       </c>
       <c r="K52" t="n">
-        <v>79920</v>
+        <v>82060</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2527,21 +2483,21 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>137807</v>
+        <v>40651</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2549,44 +2505,44 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H53" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="I53" t="n">
-        <v>34.05</v>
+        <v>37.15</v>
       </c>
       <c r="J53" t="n">
-        <v>23835</v>
+        <v>81730</v>
       </c>
       <c r="K53" t="n">
-        <v>23835</v>
+        <v>-81730</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 12:05:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
+          <t>AUROPHARMA31AUG23C850</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>137803</v>
+        <v>40651</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2594,19 +2550,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H54" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I54" t="n">
-        <v>25.15</v>
+        <v>33.5</v>
       </c>
       <c r="J54" t="n">
-        <v>35210</v>
+        <v>73700</v>
       </c>
       <c r="K54" t="n">
-        <v>35210</v>
+        <v>73700</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2615,113 +2571,34 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>UPL31AUG23P605</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>178514</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J55" t="n">
-        <v>40950</v>
-      </c>
-      <c r="K55" t="n">
-        <v>40950</v>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>105643</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I56" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="J56" t="n">
-        <v>38687.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>38687.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-13530</v>
+      </c>
+    </row>
+    <row r="56"/>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-08-03 15:26:00</t>
+          <t>2023-08-03 12:15:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1060</t>
+          <t>AUROPHARMA31AUG23C840</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>105641</v>
+        <v>42917</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2729,146 +2606,190 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="H57" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="I57" t="n">
-        <v>26.45</v>
+        <v>39.1</v>
       </c>
       <c r="J57" t="n">
-        <v>66125</v>
+        <v>86020</v>
       </c>
       <c r="K57" t="n">
-        <v>66125</v>
+        <v>-86020</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:32:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AUROPHARMA31AUG23C840</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>42917</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I58" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>83820</v>
+      </c>
+      <c r="K58" t="n">
+        <v>83820</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="58"/>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>AUROPHARMA-EQ</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>275</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>58</v>
-      </c>
-      <c r="I59" t="n">
-        <v>850.3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>49317.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-49317.4</v>
-      </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-08-03 10:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23C1400</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>135365</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>400</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I61" t="n">
+        <v>61</v>
+      </c>
+      <c r="J61" t="n">
+        <v>97600</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-97600</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:40:00</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>AUROPHARMA-EQ</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>275</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>58</v>
-      </c>
-      <c r="I60" t="n">
-        <v>850.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>49305.8</v>
-      </c>
-      <c r="K60" t="n">
-        <v>49305.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-08-03 10:25:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23C1400</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>135365</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>400</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I62" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="J62" t="n">
+        <v>87760</v>
+      </c>
+      <c r="K62" t="n">
+        <v>87760</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-11.59999999999127</v>
-      </c>
-    </row>
-    <row r="62"/>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AUROPHARMA31AUG23C840</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42917</v>
+        <v>135365</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2876,19 +2797,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="H63" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="I63" t="n">
-        <v>39.1</v>
+        <v>60.8</v>
       </c>
       <c r="J63" t="n">
-        <v>43010</v>
+        <v>97280</v>
       </c>
       <c r="K63" t="n">
-        <v>-43010</v>
+        <v>-97280</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2899,21 +2820,21 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 11:58:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>AUROPHARMA31AUG23C840</t>
+          <t>METROPOLIS31AUG23C1400</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42917</v>
+        <v>135365</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2921,19 +2842,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="H64" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="I64" t="n">
-        <v>39.1</v>
+        <v>57</v>
       </c>
       <c r="J64" t="n">
-        <v>43010</v>
+        <v>91200</v>
       </c>
       <c r="K64" t="n">
-        <v>43010</v>
+        <v>91200</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2948,14 +2869,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>-15920</v>
       </c>
     </row>
     <row r="66"/>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 12:15:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2965,31 +2886,31 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>METROPOLIS31AUG23C1380</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9581</v>
+        <v>135363</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H67" t="n">
-        <v>35</v>
+        <v>1200</v>
       </c>
       <c r="I67" t="n">
-        <v>1398.2</v>
+        <v>63</v>
       </c>
       <c r="J67" t="n">
-        <v>48937</v>
+        <v>75600</v>
       </c>
       <c r="K67" t="n">
-        <v>-48937</v>
+        <v>-75600</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3000,7 +2921,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3010,31 +2931,31 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>METROPOLIS31AUG23C1380</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9581</v>
+        <v>135363</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H68" t="n">
-        <v>35</v>
+        <v>1200</v>
       </c>
       <c r="I68" t="n">
-        <v>1382.3</v>
+        <v>79</v>
       </c>
       <c r="J68" t="n">
-        <v>48380.5</v>
+        <v>94800</v>
       </c>
       <c r="K68" t="n">
-        <v>48380.5</v>
+        <v>94800</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3049,28 +2970,28 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-556.5</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="70"/>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23C1380</t>
+          <t>IBULHSGFIN31AUG23C152.5</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>135363</v>
+        <v>128848</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3078,19 +2999,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>400</v>
+        <v>5100</v>
       </c>
       <c r="H71" t="n">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I71" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
-        <v>25200</v>
+        <v>81600</v>
       </c>
       <c r="K71" t="n">
-        <v>-25200</v>
+        <v>-81600</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3101,21 +3022,21 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23C1380</t>
+          <t>IBULHSGFIN31AUG23C152.5</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>135363</v>
+        <v>128848</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3123,201 +3044,201 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>400</v>
+        <v>5100</v>
       </c>
       <c r="H72" t="n">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I72" t="n">
-        <v>64</v>
+        <v>8.1</v>
       </c>
       <c r="J72" t="n">
-        <v>25600</v>
+        <v>82620</v>
       </c>
       <c r="K72" t="n">
-        <v>25600</v>
+        <v>-82620</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:59:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C152.5</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>128848</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>146880</v>
+      </c>
+      <c r="K73" t="n">
+        <v>146880</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="L73" t="inlineStr">
+    <row r="74">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74"/>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>323</v>
-      </c>
-      <c r="I75" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>49903.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-49903.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M74" t="n">
+        <v>-17340</v>
+      </c>
+    </row>
+    <row r="75"/>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>PEL31AUG23C970</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30125</v>
+        <v>73884</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H76" t="n">
-        <v>323</v>
+        <v>1500</v>
       </c>
       <c r="I76" t="n">
-        <v>153.2</v>
+        <v>55.05</v>
       </c>
       <c r="J76" t="n">
-        <v>49483.6</v>
+        <v>82575</v>
       </c>
       <c r="K76" t="n">
-        <v>49483.6</v>
+        <v>-82575</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-08-03 15:26:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PEL31AUG23C970</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>73884</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>750</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I77" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="J77" t="n">
+        <v>82575</v>
+      </c>
+      <c r="K77" t="n">
+        <v>82575</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="L77" t="inlineStr">
+    <row r="78">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>-419.9000000000015</v>
-      </c>
-    </row>
-    <row r="78"/>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:15:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23C152.5</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>128848</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5100</v>
-      </c>
-      <c r="I79" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>41310</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-41310</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79"/>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C152.5</t>
+          <t>PEL31AUG23C990</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>128848</v>
+        <v>73896</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3325,201 +3246,201 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5100</v>
+        <v>750</v>
       </c>
       <c r="H80" t="n">
-        <v>5100</v>
+        <v>2250</v>
       </c>
       <c r="I80" t="n">
-        <v>8.15</v>
+        <v>35.1</v>
       </c>
       <c r="J80" t="n">
-        <v>41565</v>
+        <v>78975</v>
       </c>
       <c r="K80" t="n">
-        <v>41565</v>
+        <v>-78975</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-08-03 15:26:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PEL31AUG23C990</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>73896</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>750</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I81" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>78975</v>
+      </c>
+      <c r="K81" t="n">
+        <v>78975</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="L81" t="inlineStr">
+    <row r="82">
+      <c r="L82" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82"/>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>PEL-EQ</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>2412</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>50</v>
-      </c>
-      <c r="I83" t="n">
-        <v>985.9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>49295</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-49295</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83"/>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-08-03 09:40:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>ABCAPITAL31AUG23C190</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2412</v>
+        <v>65757</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H84" t="n">
-        <v>50</v>
+        <v>10800</v>
       </c>
       <c r="I84" t="n">
-        <v>979.55</v>
+        <v>7.75</v>
       </c>
       <c r="J84" t="n">
-        <v>48977.5</v>
+        <v>83700</v>
       </c>
       <c r="K84" t="n">
-        <v>48977.5</v>
+        <v>-83700</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-08-03 10:31:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23C190</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>65757</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>76680</v>
+      </c>
+      <c r="K85" t="n">
+        <v>76680</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="L85" t="inlineStr">
+    <row r="86">
+      <c r="L86" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>-317.5</v>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:15:00</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PEL31AUG23C980</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>73886</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>750</v>
-      </c>
-      <c r="H87" t="n">
-        <v>750</v>
-      </c>
-      <c r="I87" t="n">
-        <v>40</v>
-      </c>
-      <c r="J87" t="n">
-        <v>30000</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M86" t="n">
+        <v>-7020</v>
+      </c>
+    </row>
+    <row r="87"/>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 11:15:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PEL31AUG23C980</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73886</v>
+        <v>65769</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3527,41 +3448,120 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>750</v>
+        <v>5400</v>
       </c>
       <c r="H88" t="n">
-        <v>750</v>
+        <v>10800</v>
       </c>
       <c r="I88" t="n">
-        <v>40</v>
+        <v>7.55</v>
       </c>
       <c r="J88" t="n">
-        <v>30000</v>
+        <v>81540</v>
       </c>
       <c r="K88" t="n">
-        <v>30000</v>
+        <v>-81540</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23C192.5</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>65769</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="J89" t="n">
+        <v>75060</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-75060</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:55:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23C192.5</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>65769</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21600</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J90" t="n">
+        <v>135000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>135000</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90"/>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3571,31 +3571,31 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21614</v>
+        <v>65769</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H91" t="n">
-        <v>257</v>
+        <v>10800</v>
       </c>
       <c r="I91" t="n">
-        <v>194.2</v>
+        <v>6.75</v>
       </c>
       <c r="J91" t="n">
-        <v>49909.4</v>
+        <v>72900</v>
       </c>
       <c r="K91" t="n">
-        <v>-49909.4</v>
+        <v>-72900</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>2023-08-03 09:45:00</t>
+          <t>2023-08-03 13:44:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3616,31 +3616,31 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21614</v>
+        <v>65769</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H92" t="n">
-        <v>257</v>
+        <v>10800</v>
       </c>
       <c r="I92" t="n">
-        <v>193</v>
+        <v>6.3</v>
       </c>
       <c r="J92" t="n">
-        <v>49601</v>
+        <v>68040</v>
       </c>
       <c r="K92" t="n">
-        <v>49601</v>
+        <v>68040</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3655,28 +3655,28 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-308.3999999999942</v>
+        <v>-26460</v>
       </c>
     </row>
     <row r="94"/>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>HINDPETRO31AUG23P272.5</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>65769</v>
+        <v>128470</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3684,19 +3684,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H95" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I95" t="n">
-        <v>6.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>37530</v>
+        <v>88560</v>
       </c>
       <c r="K95" t="n">
-        <v>-37530</v>
+        <v>-88560</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3707,21 +3707,21 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>HINDPETRO31AUG23P272.5</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>65769</v>
+        <v>128470</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3729,19 +3729,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H96" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I96" t="n">
-        <v>6.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J96" t="n">
-        <v>37530</v>
+        <v>95040</v>
       </c>
       <c r="K96" t="n">
-        <v>37530</v>
+        <v>95040</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3750,110 +3750,110 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="inlineStr">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>6480.000000000015</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99">
+      <c r="B99" t="inlineStr">
         <is>
           <t>2023-08-03 13:15:00</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>65769</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>5400</v>
-      </c>
-      <c r="H97" t="n">
-        <v>5400</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="J97" t="n">
-        <v>36450</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-36450</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P270</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>128468</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J99" t="n">
+        <v>86940</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-86940</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023-08-03 13:15:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>65769</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>5400</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5400</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="J98" t="n">
-        <v>36450</v>
-      </c>
-      <c r="K98" t="n">
-        <v>36450</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100"/>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-08-03 14:15:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P270</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>128468</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J100" t="n">
+        <v>89640</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-89640</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3863,31 +3863,31 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1406</v>
+        <v>128468</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H101" t="n">
-        <v>183</v>
+        <v>21600</v>
       </c>
       <c r="I101" t="n">
-        <v>272.25</v>
+        <v>7.4</v>
       </c>
       <c r="J101" t="n">
-        <v>49821.75</v>
+        <v>159840</v>
       </c>
       <c r="K101" t="n">
-        <v>49821.75</v>
+        <v>159840</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3896,79 +3896,79 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>HINDPETRO-EQ</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1406</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="n">
-        <v>183</v>
-      </c>
-      <c r="I102" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>49501.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-49501.5</v>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>-16740.00000000003</v>
+      </c>
+    </row>
+    <row r="103"/>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2023-08-03 10:15:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23P1080</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>137803</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>700</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2800</v>
+      </c>
+      <c r="I104" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>94920</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-94920</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>320.25</v>
-      </c>
-    </row>
-    <row r="104"/>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P272.5</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>128470</v>
+        <v>137803</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="H105" t="n">
-        <v>5400</v>
+        <v>2800</v>
       </c>
       <c r="I105" t="n">
-        <v>8.199999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="J105" t="n">
-        <v>44280</v>
+        <v>94920</v>
       </c>
       <c r="K105" t="n">
-        <v>-44280</v>
+        <v>-94920</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4004,16 +4004,16 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P272.5</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>128470</v>
+        <v>137803</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4021,19 +4021,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="H106" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I106" t="n">
-        <v>8.800000000000001</v>
+        <v>25.15</v>
       </c>
       <c r="J106" t="n">
-        <v>47520</v>
+        <v>140840</v>
       </c>
       <c r="K106" t="n">
-        <v>47520</v>
+        <v>140840</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4048,28 +4048,28 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>3240.000000000015</v>
+        <v>-49000</v>
       </c>
     </row>
     <row r="108"/>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 10:15:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>UPL31AUG23P600</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>128468</v>
+        <v>149204</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4077,19 +4077,19 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="H109" t="n">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I109" t="n">
-        <v>8.050000000000001</v>
+        <v>16.15</v>
       </c>
       <c r="J109" t="n">
-        <v>43470</v>
+        <v>83980</v>
       </c>
       <c r="K109" t="n">
-        <v>-43470</v>
+        <v>-83980</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4100,21 +4100,21 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>UPL31AUG23P600</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>128468</v>
+        <v>149204</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4122,120 +4122,120 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="H110" t="n">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I110" t="n">
-        <v>8.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="J110" t="n">
-        <v>44820</v>
+        <v>69160</v>
       </c>
       <c r="K110" t="n">
-        <v>-44820</v>
+        <v>69160</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>-14819.99999999999</v>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2023-08-03 10:15:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CHOLAFIN31AUG23P1080</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>105645</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I113" t="n">
+        <v>34</v>
+      </c>
+      <c r="J113" t="n">
+        <v>85000</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P270</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>128468</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H111" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I111" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>79920</v>
-      </c>
-      <c r="K111" t="n">
-        <v>79920</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>-8370.000000000015</v>
-      </c>
-    </row>
-    <row r="113"/>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>2023-08-03 09:31:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>CHOLAFIN31AUG23P1080</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20242</v>
+        <v>105645</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="H114" t="n">
-        <v>45</v>
+        <v>2500</v>
       </c>
       <c r="I114" t="n">
-        <v>1098.6</v>
+        <v>35.9</v>
       </c>
       <c r="J114" t="n">
-        <v>49437</v>
+        <v>89750</v>
       </c>
       <c r="K114" t="n">
-        <v>49437</v>
+        <v>89750</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4244,79 +4244,79 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY-EQ</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>20242</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="n">
-        <v>45</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J115" t="n">
-        <v>49500</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-49500</v>
-      </c>
       <c r="L115" t="inlineStr">
         <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2023-08-03 13:15:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CHOLAFIN31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>105641</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I117" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="J117" t="n">
+        <v>78875</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-78875</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>-63.00000000000728</v>
-      </c>
-    </row>
-    <row r="117"/>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
+          <t>CHOLAFIN31AUG23P1060</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>137807</v>
+        <v>105641</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4324,831 +4324,34 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="H118" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="I118" t="n">
-        <v>36.5</v>
+        <v>26.45</v>
       </c>
       <c r="J118" t="n">
-        <v>25550</v>
+        <v>66125</v>
       </c>
       <c r="K118" t="n">
-        <v>-25550</v>
+        <v>66125</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>137807</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>700</v>
-      </c>
-      <c r="H119" t="n">
-        <v>700</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.05</v>
-      </c>
-      <c r="J119" t="n">
-        <v>23835</v>
-      </c>
-      <c r="K119" t="n">
-        <v>23835</v>
-      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="L120" t="inlineStr">
-        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>-1715.000000000004</v>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023-08-03 14:15:00</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>137803</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>700</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1400</v>
-      </c>
-      <c r="I122" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>47460</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-47460</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>137803</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>700</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1400</v>
-      </c>
-      <c r="I123" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="J123" t="n">
-        <v>35210</v>
-      </c>
-      <c r="K123" t="n">
-        <v>35210</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>-12250</v>
-      </c>
-    </row>
-    <row r="125"/>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>UPL-EQ</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>11287</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="n">
-        <v>83</v>
-      </c>
-      <c r="I126" t="n">
-        <v>602.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>49999.2</v>
-      </c>
-      <c r="K126" t="n">
-        <v>49999.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>UPL-EQ</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>11287</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="n">
-        <v>83</v>
-      </c>
-      <c r="I127" t="n">
-        <v>600.65</v>
-      </c>
-      <c r="J127" t="n">
-        <v>49853.95</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-49853.95</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>145.25</v>
-      </c>
-    </row>
-    <row r="129"/>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:15:00</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>UPL31AUG23P605</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>178514</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I130" t="n">
-        <v>15</v>
-      </c>
-      <c r="J130" t="n">
-        <v>39000</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-39000</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>UPL31AUG23P605</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>178514</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I131" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J131" t="n">
-        <v>40950</v>
-      </c>
-      <c r="K131" t="n">
-        <v>40950</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="133"/>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DABUR</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>DABUR-EQ</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>772</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="n">
-        <v>90</v>
-      </c>
-      <c r="I134" t="n">
-        <v>550.8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>49572</v>
-      </c>
-      <c r="K134" t="n">
-        <v>49572</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DABUR</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>DABUR-EQ</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>772</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
-        <v>90</v>
-      </c>
-      <c r="I135" t="n">
-        <v>556</v>
-      </c>
-      <c r="J135" t="n">
-        <v>50040</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-50040</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>-468.0000000000073</v>
-      </c>
-    </row>
-    <row r="137"/>
-    <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023-08-03 09:31:00</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>CHOLAFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>685</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="n">
-        <v>45</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1089.25</v>
-      </c>
-      <c r="J138" t="n">
-        <v>49016.25</v>
-      </c>
-      <c r="K138" t="n">
-        <v>49016.25</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>CHOLAFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>685</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="n">
-        <v>45</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1068.7</v>
-      </c>
-      <c r="J139" t="n">
-        <v>48091.5</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-48091.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>924.75</v>
-      </c>
-    </row>
-    <row r="141"/>
-    <row r="142">
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:15:00</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>105643</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I142" t="n">
-        <v>32</v>
-      </c>
-      <c r="J142" t="n">
-        <v>40000</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-40000</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>105643</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I143" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="J143" t="n">
-        <v>38687.5</v>
-      </c>
-      <c r="K143" t="n">
-        <v>38687.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>-1312.5</v>
-      </c>
-    </row>
-    <row r="145"/>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023-08-03 13:15:00</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I146" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="J146" t="n">
-        <v>39437.5</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-39437.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023-08-03 14:15:00</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I147" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="J147" t="n">
-        <v>39937.5</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-39937.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I148" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="J148" t="n">
-        <v>66125</v>
-      </c>
-      <c r="K148" t="n">
-        <v>66125</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>-13250</v>
+      <c r="M119" t="n">
+        <v>-12750</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/03-08-2023/report_03-08-2023.xlsx
+++ b/apidata/momentum/03-08-2023/report_03-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M97"/>
+  <dimension ref="B1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3575</v>
+        <v>-25170</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3575</v>
+        <v>-25170</v>
       </c>
     </row>
     <row r="7"/>
@@ -1222,21 +1222,21 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-03 12:40:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UPL31AUG23P605</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>178514</v>
+        <v>65769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1244,30 +1244,30 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1300</v>
+        <v>5400</v>
       </c>
       <c r="H24" t="n">
-        <v>6500</v>
+        <v>10800</v>
       </c>
       <c r="I24" t="n">
-        <v>16.95</v>
+        <v>6.75</v>
       </c>
       <c r="J24" t="n">
-        <v>110175</v>
+        <v>72900</v>
       </c>
       <c r="K24" t="n">
-        <v>110175</v>
+        <v>-72900</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-03 12:58:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1277,11 +1277,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P272.5</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>128470</v>
+        <v>128468</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1295,38 +1295,38 @@
         <v>10800</v>
       </c>
       <c r="I25" t="n">
-        <v>9.15</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>98820</v>
+        <v>86940</v>
       </c>
       <c r="K25" t="n">
-        <v>98820</v>
+        <v>-86940</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-03 12:58:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
+          <t>CHOLAFIN31AUG23P1060</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>137807</v>
+        <v>105641</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1334,44 +1334,44 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="H26" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="I26" t="n">
-        <v>40.45</v>
+        <v>31.55</v>
       </c>
       <c r="J26" t="n">
-        <v>84945</v>
+        <v>78875</v>
       </c>
       <c r="K26" t="n">
-        <v>84945</v>
+        <v>-78875</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-03 13:04:00</t>
+          <t>2023-08-03 13:16:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1070</t>
+          <t>ABCAPITAL31AUG23C192.5</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105643</v>
+        <v>65769</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1250</v>
+        <v>5400</v>
       </c>
       <c r="H27" t="n">
-        <v>2500</v>
+        <v>10800</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>89625</v>
+        <v>75600</v>
       </c>
       <c r="K27" t="n">
-        <v>89625</v>
+        <v>75600</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>65769</v>
+        <v>128468</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,19 +1424,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H28" t="n">
         <v>10800</v>
       </c>
       <c r="I28" t="n">
-        <v>6.75</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>72900</v>
+        <v>89640</v>
       </c>
       <c r="K28" t="n">
-        <v>-72900</v>
+        <v>-89640</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,21 +1447,21 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>128468</v>
+        <v>137803</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="H29" t="n">
-        <v>10800</v>
+        <v>2800</v>
       </c>
       <c r="I29" t="n">
-        <v>8.050000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="J29" t="n">
-        <v>86940</v>
+        <v>94920</v>
       </c>
       <c r="K29" t="n">
-        <v>-86940</v>
+        <v>-94920</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1520,13 +1520,13 @@
         <v>2500</v>
       </c>
       <c r="I30" t="n">
-        <v>31.55</v>
+        <v>31.95</v>
       </c>
       <c r="J30" t="n">
-        <v>78875</v>
+        <v>79875</v>
       </c>
       <c r="K30" t="n">
-        <v>-78875</v>
+        <v>-79875</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1537,21 +1537,21 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-03 13:16:00</t>
+          <t>2023-08-03 14:33:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>65769</v>
+        <v>128468</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H31" t="n">
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>75600</v>
+        <v>159840</v>
       </c>
       <c r="K31" t="n">
-        <v>75600</v>
+        <v>159840</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1582,21 +1582,21 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-03 13:57:00</t>
+          <t>2023-08-03 14:34:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1060</t>
+          <t>HINDPETRO31AUG23P272.5</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>105641</v>
+        <v>128470</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1250</v>
+        <v>2700</v>
       </c>
       <c r="H32" t="n">
-        <v>2500</v>
+        <v>10800</v>
       </c>
       <c r="I32" t="n">
-        <v>34.1</v>
+        <v>8.75</v>
       </c>
       <c r="J32" t="n">
-        <v>85250</v>
+        <v>94500</v>
       </c>
       <c r="K32" t="n">
-        <v>85250</v>
+        <v>94500</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1627,21 +1627,21 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 14:34:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>OBEROIRLTY31AUG23P1080</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>128468</v>
+        <v>137803</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,30 +1649,30 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="H33" t="n">
-        <v>10800</v>
+        <v>2800</v>
       </c>
       <c r="I33" t="n">
-        <v>8.300000000000001</v>
+        <v>30.05</v>
       </c>
       <c r="J33" t="n">
-        <v>89640</v>
+        <v>84140</v>
       </c>
       <c r="K33" t="n">
-        <v>-89640</v>
+        <v>84140</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 14:35:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1682,11 +1682,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
+          <t>OBEROIRLTY31AUG23P1100</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>137803</v>
+        <v>137807</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1697,27 +1697,27 @@
         <v>700</v>
       </c>
       <c r="H34" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="I34" t="n">
-        <v>33.9</v>
+        <v>40</v>
       </c>
       <c r="J34" t="n">
-        <v>94920</v>
+        <v>84000</v>
       </c>
       <c r="K34" t="n">
-        <v>-94920</v>
+        <v>84000</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 14:38:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1742,27 +1742,27 @@
         <v>1250</v>
       </c>
       <c r="H35" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I35" t="n">
-        <v>31.95</v>
+        <v>28.2</v>
       </c>
       <c r="J35" t="n">
-        <v>79875</v>
+        <v>141000</v>
       </c>
       <c r="K35" t="n">
-        <v>-79875</v>
+        <v>141000</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-08-03 14:48:00</t>
+          <t>2023-08-03 14:39:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1772,11 +1772,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CHOLAFIN31AUG23P1060</t>
+          <t>CHOLAFIN31AUG23P1070</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105641</v>
+        <v>105643</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
         <v>2500</v>
       </c>
       <c r="I36" t="n">
-        <v>28.6</v>
+        <v>33.25</v>
       </c>
       <c r="J36" t="n">
-        <v>71500</v>
+        <v>83125</v>
       </c>
       <c r="K36" t="n">
-        <v>71500</v>
+        <v>83125</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1902,16 +1902,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>UPL31AUG23P605</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>128468</v>
+        <v>178514</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="H39" t="n">
-        <v>21600</v>
+        <v>6500</v>
       </c>
       <c r="I39" t="n">
-        <v>7.4</v>
+        <v>15.75</v>
       </c>
       <c r="J39" t="n">
-        <v>159840</v>
+        <v>102375</v>
       </c>
       <c r="K39" t="n">
-        <v>159840</v>
+        <v>102375</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1939,56 +1939,56 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>137803</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>700</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2800</v>
-      </c>
-      <c r="I40" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>70420</v>
-      </c>
-      <c r="K40" t="n">
-        <v>70420</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AUROPHARMA31AUG23C840</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>42917</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>86020</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-86020</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:16:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2022,74 +2022,74 @@
         <v>86020</v>
       </c>
       <c r="K42" t="n">
-        <v>-86020</v>
+        <v>86020</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23C1380</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>135363</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>400</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I45" t="n">
+        <v>63</v>
+      </c>
+      <c r="J45" t="n">
+        <v>75600</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-75600</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:16:00</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AUROPHARMA31AUG23C840</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>42917</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2200</v>
-      </c>
-      <c r="I43" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>86020</v>
-      </c>
-      <c r="K43" t="n">
-        <v>86020</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45"/>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:16:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2117,80 +2117,80 @@
         <v>1200</v>
       </c>
       <c r="I46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J46" t="n">
-        <v>75600</v>
+        <v>76800</v>
       </c>
       <c r="K46" t="n">
-        <v>-75600</v>
+        <v>76800</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-08-03 15:15:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23C1420</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>135367</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>400</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I49" t="n">
+        <v>60</v>
+      </c>
+      <c r="J49" t="n">
+        <v>96000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-96000</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:16:00</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23C1380</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>135363</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>400</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64</v>
-      </c>
-      <c r="J47" t="n">
-        <v>76800</v>
-      </c>
-      <c r="K47" t="n">
-        <v>76800</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-08-03 15:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2218,80 +2218,80 @@
         <v>1600</v>
       </c>
       <c r="I50" t="n">
-        <v>60</v>
+        <v>56.5</v>
       </c>
       <c r="J50" t="n">
-        <v>96000</v>
+        <v>90400</v>
       </c>
       <c r="K50" t="n">
-        <v>-96000</v>
+        <v>90400</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C152.5</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>128848</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>82620</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-82620</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23C1420</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>135367</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>400</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I51" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>90400</v>
-      </c>
-      <c r="K51" t="n">
-        <v>90400</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-5600</v>
-      </c>
-    </row>
-    <row r="53"/>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:16:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2319,80 +2319,80 @@
         <v>10200</v>
       </c>
       <c r="I54" t="n">
-        <v>8.1</v>
+        <v>8.15</v>
       </c>
       <c r="J54" t="n">
-        <v>82620</v>
+        <v>83130</v>
       </c>
       <c r="K54" t="n">
-        <v>-82620</v>
+        <v>83130</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PEL31AUG23C980</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>73886</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>750</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40</v>
+      </c>
+      <c r="J57" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-90000</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:16:00</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23C152.5</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>128848</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H55" t="n">
-        <v>10200</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>83130</v>
-      </c>
-      <c r="K55" t="n">
-        <v>83130</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="57"/>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:16:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2426,74 +2426,74 @@
         <v>90000</v>
       </c>
       <c r="K58" t="n">
-        <v>-90000</v>
+        <v>90000</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23C192.5</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>65769</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="J61" t="n">
+        <v>75060</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-75060</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:16:00</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PEL31AUG23C980</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>73886</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>750</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2250</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>90000</v>
-      </c>
-      <c r="K59" t="n">
-        <v>90000</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61"/>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 12:16:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2527,18 +2527,18 @@
         <v>75060</v>
       </c>
       <c r="K62" t="n">
-        <v>-75060</v>
+        <v>75060</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-08-03 12:16:00</t>
+          <t>2023-08-03 13:15:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2566,24 +2566,24 @@
         <v>10800</v>
       </c>
       <c r="I63" t="n">
-        <v>6.95</v>
+        <v>6.75</v>
       </c>
       <c r="J63" t="n">
-        <v>75060</v>
+        <v>72900</v>
       </c>
       <c r="K63" t="n">
-        <v>75060</v>
+        <v>-72900</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 13:16:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2611,80 +2611,80 @@
         <v>10800</v>
       </c>
       <c r="I64" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>72900</v>
+        <v>75600</v>
       </c>
       <c r="K64" t="n">
-        <v>-72900</v>
+        <v>75600</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P272.5</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>128470</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>88560</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-88560</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-08-03 13:16:00</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>ABCAPITAL31AUG23C192.5</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>65769</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>5400</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>75600</v>
-      </c>
-      <c r="K65" t="n">
-        <v>75600</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="67"/>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 14:34:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2712,80 +2712,80 @@
         <v>10800</v>
       </c>
       <c r="I68" t="n">
-        <v>8.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="J68" t="n">
-        <v>88560</v>
+        <v>94500</v>
       </c>
       <c r="K68" t="n">
-        <v>-88560</v>
+        <v>94500</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>5940.000000000015</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-08-03 13:15:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P270</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>128468</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>86940</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-86940</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:58:00</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P272.5</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>128470</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H69" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="J69" t="n">
-        <v>98820</v>
-      </c>
-      <c r="K69" t="n">
-        <v>98820</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>10260.00000000001</v>
-      </c>
-    </row>
-    <row r="71"/>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2813,13 +2813,13 @@
         <v>10800</v>
       </c>
       <c r="I72" t="n">
-        <v>8.050000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>86940</v>
+        <v>89640</v>
       </c>
       <c r="K72" t="n">
-        <v>-86940</v>
+        <v>-89640</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 14:33:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2855,83 +2855,83 @@
         <v>2700</v>
       </c>
       <c r="H73" t="n">
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="I73" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="J73" t="n">
-        <v>89640</v>
+        <v>159840</v>
       </c>
       <c r="K73" t="n">
-        <v>-89640</v>
+        <v>159840</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>-16740.00000000003</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23P1100</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>137807</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>700</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>76650</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-76650</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P270</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>128468</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21600</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>159840</v>
-      </c>
-      <c r="K74" t="n">
-        <v>159840</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>-16740.00000000003</v>
-      </c>
-    </row>
-    <row r="76"/>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 14:35:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2959,80 +2959,80 @@
         <v>2100</v>
       </c>
       <c r="I77" t="n">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="J77" t="n">
-        <v>76650</v>
+        <v>84000</v>
       </c>
       <c r="K77" t="n">
-        <v>-76650</v>
+        <v>84000</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-08-03 14:15:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23P1080</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>137803</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>700</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2800</v>
+      </c>
+      <c r="I80" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>94920</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-94920</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:58:00</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1100</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>137807</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>700</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2100</v>
-      </c>
-      <c r="I78" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="J78" t="n">
-        <v>84945</v>
-      </c>
-      <c r="K78" t="n">
-        <v>84945</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>8295</v>
-      </c>
-    </row>
-    <row r="80"/>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-08-03 14:15:00</t>
+          <t>2023-08-03 14:34:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3060,80 +3060,80 @@
         <v>2800</v>
       </c>
       <c r="I81" t="n">
-        <v>33.9</v>
+        <v>30.05</v>
       </c>
       <c r="J81" t="n">
-        <v>94920</v>
+        <v>84140</v>
       </c>
       <c r="K81" t="n">
-        <v>-94920</v>
+        <v>84140</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-10780</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>UPL31AUG23P605</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>178514</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15</v>
+      </c>
+      <c r="J84" t="n">
+        <v>97500</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-97500</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023-08-03 15:26:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23P1080</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>137803</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>700</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2800</v>
-      </c>
-      <c r="I82" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>70420</v>
-      </c>
-      <c r="K82" t="n">
-        <v>70420</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>-24500</v>
-      </c>
-    </row>
-    <row r="84"/>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 15:26:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3161,80 +3161,80 @@
         <v>6500</v>
       </c>
       <c r="I85" t="n">
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="J85" t="n">
-        <v>97500</v>
+        <v>102375</v>
       </c>
       <c r="K85" t="n">
-        <v>-97500</v>
+        <v>102375</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="87"/>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-08-03 12:15:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CHOLAFIN31AUG23P1070</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>105643</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-80000</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-08-03 12:40:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>UPL31AUG23P605</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>178514</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6500</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="J86" t="n">
-        <v>110175</v>
-      </c>
-      <c r="K86" t="n">
-        <v>110175</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>12675</v>
-      </c>
-    </row>
-    <row r="88"/>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-08-03 12:15:00</t>
+          <t>2023-08-03 14:39:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3262,80 +3262,80 @@
         <v>2500</v>
       </c>
       <c r="I89" t="n">
-        <v>32</v>
+        <v>33.25</v>
       </c>
       <c r="J89" t="n">
-        <v>80000</v>
+        <v>83125</v>
       </c>
       <c r="K89" t="n">
-        <v>-80000</v>
+        <v>83125</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-08-03 13:15:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CHOLAFIN31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>105641</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I92" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="J92" t="n">
+        <v>78875</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-78875</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-08-03 13:04:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>105643</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I90" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="J90" t="n">
-        <v>89625</v>
-      </c>
-      <c r="K90" t="n">
-        <v>89625</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>9625</v>
-      </c>
-    </row>
-    <row r="92"/>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>2023-08-03 13:15:00</t>
+          <t>2023-08-03 14:15:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3363,13 +3363,13 @@
         <v>2500</v>
       </c>
       <c r="I93" t="n">
-        <v>31.55</v>
+        <v>31.95</v>
       </c>
       <c r="J93" t="n">
-        <v>78875</v>
+        <v>79875</v>
       </c>
       <c r="K93" t="n">
-        <v>-78875</v>
+        <v>-79875</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>2023-08-03 13:57:00</t>
+          <t>2023-08-03 14:38:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3405,16 +3405,16 @@
         <v>1250</v>
       </c>
       <c r="H94" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I94" t="n">
-        <v>34.1</v>
+        <v>28.2</v>
       </c>
       <c r="J94" t="n">
-        <v>85250</v>
+        <v>141000</v>
       </c>
       <c r="K94" t="n">
-        <v>85250</v>
+        <v>141000</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3423,103 +3423,13 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023-08-03 14:15:00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>79875</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-79875</v>
-      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023-08-03 14:48:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>CHOLAFIN31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>105641</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I96" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>71500</v>
-      </c>
-      <c r="K96" t="n">
-        <v>71500</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="L97" t="inlineStr">
-        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>-2000</v>
+      <c r="M95" t="n">
+        <v>-17750</v>
       </c>
     </row>
   </sheetData>
